--- a/DataFiles/RemsDemo_Information.xlsx
+++ b/DataFiles/RemsDemo_Information.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="15480" windowHeight="9000" tabRatio="695" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="15480" windowHeight="9000" tabRatio="695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="595">
   <si>
     <t>Notes</t>
   </si>
@@ -121,48 +121,9 @@
     <t>enr_b_coeff</t>
   </si>
   <si>
-    <t>ll15</t>
-  </si>
-  <si>
-    <t>dul</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>swcon</t>
-  </si>
-  <si>
-    <t>air_dry</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
     <t>ureappm</t>
   </si>
   <si>
-    <t>nh4ppm</t>
-  </si>
-  <si>
-    <t>oc</t>
-  </si>
-  <si>
-    <t>fbiom</t>
-  </si>
-  <si>
-    <t>finert</t>
-  </si>
-  <si>
-    <t>no3ppm</t>
-  </si>
-  <si>
     <t>Soil</t>
   </si>
   <si>
@@ -1354,15 +1315,6 @@
     <t>Zinc</t>
   </si>
   <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
     <t>IC_BW5</t>
   </si>
   <si>
@@ -1726,9 +1678,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DefaultUnits</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -1823,6 +1772,51 @@
   </si>
   <si>
     <t>Amplitude</t>
+  </si>
+  <si>
+    <t>LL15</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>SWCON</t>
+  </si>
+  <si>
+    <t>FBiom</t>
+  </si>
+  <si>
+    <t>FInert</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>AirDry</t>
+  </si>
+  <si>
+    <t>NH4N</t>
+  </si>
+  <si>
+    <t>NO3N</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>BW8</t>
   </si>
 </sst>
 </file>
@@ -2310,62 +2304,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2403,24 +2397,24 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2463,10 +2457,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -2474,7 +2468,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B2">
         <v>14.5</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2502,7 +2496,7 @@
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2516,7 +2510,7 @@
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2544,7 +2538,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2558,7 +2552,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -2570,12 +2564,12 @@
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -2610,22 +2604,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>14</v>
@@ -2639,7 +2633,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B2" s="13">
         <v>34</v>
@@ -2664,7 +2658,7 @@
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2687,7 +2681,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B4">
         <v>20.200000762939499</v>
@@ -2710,7 +2704,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B5">
         <v>82.199996948242202</v>
@@ -2733,7 +2727,7 @@
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B6">
         <v>20.5</v>
@@ -2756,7 +2750,7 @@
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2779,7 +2773,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -2802,7 +2796,7 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B9">
         <v>12.6000003814697</v>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -2848,7 +2842,7 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2871,7 +2865,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2894,7 +2888,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2940,7 +2934,7 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2963,7 +2957,7 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2986,7 +2980,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3007,12 +3001,12 @@
         <v>77.5</v>
       </c>
       <c r="H17" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3033,12 +3027,12 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3059,12 +3053,12 @@
         <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3085,12 +3079,12 @@
         <v>9.6000003814697301</v>
       </c>
       <c r="H20" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3111,12 +3105,12 @@
         <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3137,12 +3131,12 @@
         <v>35.5</v>
       </c>
       <c r="H22" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3163,12 +3157,12 @@
         <v>22.700000762939499</v>
       </c>
       <c r="H23" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3191,7 +3185,7 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3214,7 +3208,7 @@
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3235,12 +3229,12 @@
         <v>13.1000003814697</v>
       </c>
       <c r="H26" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3263,7 +3257,7 @@
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3286,7 +3280,7 @@
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3332,7 +3326,7 @@
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3355,7 +3349,7 @@
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3424,7 +3418,7 @@
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3447,7 +3441,7 @@
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3470,7 +3464,7 @@
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3493,7 +3487,7 @@
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3516,7 +3510,7 @@
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3549,7 +3543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3563,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>11</v>
@@ -3574,114 +3568,114 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,111 +3683,111 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3819,10 +3813,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -3830,106 +3824,106 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -3963,10 +3957,10 @@
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -3993,7 +3987,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -4013,10 +4007,10 @@
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -4048,7 +4042,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -4056,32 +4050,32 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4091,12 +4085,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,47 +4100,47 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4161,7 +4155,7 @@
   <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4174,16 +4168,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
@@ -4191,209 +4185,209 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -4401,13 +4395,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -4415,13 +4409,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -4429,13 +4423,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -4443,27 +4437,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -4471,13 +4465,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -4485,13 +4479,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -4499,41 +4493,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D25" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -4541,13 +4535,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -4555,13 +4549,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -4569,13 +4563,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -4583,13 +4577,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -4597,13 +4591,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -4611,41 +4605,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>13</v>
@@ -4653,13 +4647,13 @@
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>13</v>
@@ -4667,13 +4661,13 @@
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>13</v>
@@ -4681,13 +4675,13 @@
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>13</v>
@@ -4695,13 +4689,13 @@
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>13</v>
@@ -4709,13 +4703,13 @@
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>13</v>
@@ -4723,13 +4717,13 @@
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>13</v>
@@ -4737,13 +4731,13 @@
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>13</v>
@@ -4751,13 +4745,13 @@
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>13</v>
@@ -4765,69 +4759,69 @@
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>13</v>
@@ -4835,13 +4829,13 @@
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>13</v>
@@ -4849,13 +4843,13 @@
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>13</v>
@@ -4863,13 +4857,13 @@
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>13</v>
@@ -4877,13 +4871,13 @@
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>13</v>
@@ -4891,13 +4885,13 @@
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>13</v>
@@ -4905,13 +4899,13 @@
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>13</v>
@@ -4919,13 +4913,13 @@
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>13</v>
@@ -4933,13 +4927,13 @@
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>13</v>
@@ -4947,13 +4941,13 @@
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>13</v>
@@ -4961,13 +4955,13 @@
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>13</v>
@@ -4975,13 +4969,13 @@
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>13</v>
@@ -4989,13 +4983,13 @@
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>13</v>
@@ -5003,13 +4997,13 @@
     </row>
     <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>13</v>
@@ -5017,13 +5011,13 @@
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>13</v>
@@ -5031,13 +5025,13 @@
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>13</v>
@@ -5045,13 +5039,13 @@
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>13</v>
@@ -5059,13 +5053,13 @@
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>13</v>
@@ -5073,1049 +5067,1049 @@
     </row>
     <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>13</v>
@@ -6123,13 +6117,13 @@
     </row>
     <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>13</v>
@@ -6137,13 +6131,13 @@
     </row>
     <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>13</v>
@@ -6151,41 +6145,41 @@
     </row>
     <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>13</v>
@@ -6193,13 +6187,13 @@
     </row>
     <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>13</v>
@@ -6207,13 +6201,13 @@
     </row>
     <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>13</v>
@@ -6221,13 +6215,13 @@
     </row>
     <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>13</v>
@@ -6235,13 +6229,13 @@
     </row>
     <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>13</v>
@@ -6249,13 +6243,13 @@
     </row>
     <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>13</v>
@@ -6263,13 +6257,13 @@
     </row>
     <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>13</v>
@@ -6277,13 +6271,13 @@
     </row>
     <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>13</v>
@@ -6291,13 +6285,13 @@
     </row>
     <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>13</v>
@@ -6305,13 +6299,13 @@
     </row>
     <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>13</v>
@@ -6319,13 +6313,13 @@
     </row>
     <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>13</v>
@@ -6333,13 +6327,13 @@
     </row>
     <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>13</v>
@@ -6347,13 +6341,13 @@
     </row>
     <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>13</v>
@@ -6361,13 +6355,13 @@
     </row>
     <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>13</v>
@@ -6375,13 +6369,13 @@
     </row>
     <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>13</v>
@@ -6389,13 +6383,13 @@
     </row>
     <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>13</v>
@@ -6403,13 +6397,13 @@
     </row>
     <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>13</v>
@@ -6417,13 +6411,13 @@
     </row>
     <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>13</v>
@@ -6431,349 +6425,349 @@
     </row>
     <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>13</v>
@@ -6781,13 +6775,13 @@
     </row>
     <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>13</v>
@@ -6795,307 +6789,307 @@
     </row>
     <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>13</v>
@@ -7103,13 +7097,13 @@
     </row>
     <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>13</v>
@@ -7117,13 +7111,13 @@
     </row>
     <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>13</v>
@@ -7131,13 +7125,13 @@
     </row>
     <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>13</v>
@@ -7145,13 +7139,13 @@
     </row>
     <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>13</v>
@@ -7159,13 +7153,13 @@
     </row>
     <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>13</v>
@@ -7173,13 +7167,13 @@
     </row>
     <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>13</v>
@@ -7187,13 +7181,13 @@
     </row>
     <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>13</v>
@@ -7201,13 +7195,13 @@
     </row>
     <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>13</v>
@@ -7215,13 +7209,13 @@
     </row>
     <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>13</v>
@@ -7229,13 +7223,13 @@
     </row>
     <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>13</v>
@@ -7243,13 +7237,13 @@
     </row>
     <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>13</v>
@@ -7257,13 +7251,13 @@
     </row>
     <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>13</v>
@@ -7271,13 +7265,13 @@
     </row>
     <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>13</v>
@@ -7285,13 +7279,13 @@
     </row>
     <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>13</v>
@@ -7299,13 +7293,13 @@
     </row>
     <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
@@ -7313,13 +7307,13 @@
     </row>
     <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
@@ -7327,13 +7321,13 @@
     </row>
     <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
@@ -7341,13 +7335,13 @@
     </row>
     <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
@@ -7355,13 +7349,13 @@
     </row>
     <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
@@ -7369,13 +7363,13 @@
     </row>
     <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
@@ -7383,13 +7377,13 @@
     </row>
     <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>13</v>
@@ -7397,13 +7391,13 @@
     </row>
     <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>13</v>
@@ -7411,13 +7405,13 @@
     </row>
     <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>13</v>
@@ -7425,69 +7419,69 @@
     </row>
     <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>13</v>
@@ -7495,13 +7489,13 @@
     </row>
     <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>13</v>
@@ -7509,13 +7503,13 @@
     </row>
     <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>13</v>
@@ -7523,13 +7517,13 @@
     </row>
     <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>13</v>
@@ -7537,13 +7531,13 @@
     </row>
     <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>13</v>
@@ -7551,13 +7545,13 @@
     </row>
     <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>13</v>
@@ -7565,13 +7559,13 @@
     </row>
     <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>13</v>
@@ -7579,13 +7573,13 @@
     </row>
     <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>13</v>
@@ -7593,13 +7587,13 @@
     </row>
     <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>13</v>
@@ -7607,13 +7601,13 @@
     </row>
     <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>13</v>
@@ -7621,13 +7615,13 @@
     </row>
     <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>13</v>
@@ -7635,13 +7629,13 @@
     </row>
     <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>13</v>
@@ -7649,30 +7643,30 @@
     </row>
     <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7684,10 +7678,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7710,13 +7704,13 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -7748,7 +7742,7 @@
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -7787,6 +7781,50 @@
         <v>7.4</v>
       </c>
       <c r="O2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>0.11</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>14.5</v>
+      </c>
+      <c r="L3">
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>7.4</v>
+      </c>
+      <c r="O3">
         <v>0.2</v>
       </c>
     </row>
@@ -7803,7 +7841,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7816,13 +7854,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -7845,13 +7883,13 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,18 +7907,18 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C3" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -7913,7 +7951,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7925,7 +7963,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>16</v>
@@ -7934,62 +7972,62 @@
         <v>17</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>591</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>593</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>585</v>
       </c>
       <c r="P1" t="s">
-        <v>41</v>
+        <v>586</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>592</v>
       </c>
       <c r="R1" t="s">
-        <v>441</v>
+        <v>587</v>
       </c>
       <c r="S1" t="s">
-        <v>440</v>
+        <v>588</v>
       </c>
       <c r="T1" t="s">
-        <v>442</v>
+        <v>589</v>
       </c>
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8051,7 +8089,7 @@
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -8113,7 +8151,7 @@
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -8175,7 +8213,7 @@
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B5">
         <v>450</v>
@@ -8237,7 +8275,7 @@
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B6">
         <v>600</v>
@@ -8299,7 +8337,7 @@
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B7">
         <v>750</v>
@@ -8361,7 +8399,7 @@
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B8">
         <v>900</v>
@@ -8423,7 +8461,7 @@
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B9">
         <v>1050</v>
@@ -8485,7 +8523,7 @@
     </row>
     <row r="10" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B10">
         <v>1200</v>
@@ -8547,7 +8585,7 @@
     </row>
     <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B11">
         <v>1350</v>
@@ -8609,7 +8647,7 @@
     </row>
     <row r="12" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B12">
         <v>1500</v>
@@ -8671,7 +8709,7 @@
     </row>
     <row r="13" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B13">
         <v>1650</v>
@@ -8733,7 +8771,7 @@
     </row>
     <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B14">
         <v>1800</v>
@@ -8824,7 +8862,7 @@
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
